--- a/nmi/sector_ranking.xlsx
+++ b/nmi/sector_ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanjz\Desktop\python\nmi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E03CB43-C82F-4652-A7C1-E26F0A0A5328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B215EF1-464D-40A1-B2C7-58FC86612EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{1DB42FF7-F9DB-4234-97E7-35D42142CAF0}"/>
   </bookViews>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="50">
-  <si>
-    <t>Index Names</t>
-  </si>
-  <si>
-    <t>Industries</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="50">
   <si>
     <t>Translation</t>
   </si>
@@ -161,15 +155,9 @@
     <t>Business Activity</t>
   </si>
   <si>
-    <t>New Orders</t>
-  </si>
-  <si>
     <t>Employment</t>
   </si>
   <si>
-    <t>Deliveries</t>
-  </si>
-  <si>
     <t>Inventories</t>
   </si>
   <si>
@@ -179,13 +167,25 @@
     <t>Backlog Orders</t>
   </si>
   <si>
-    <t>Export Orders</t>
-  </si>
-  <si>
     <t>Imports</t>
   </si>
   <si>
     <t>Inventory Sentiment</t>
+  </si>
+  <si>
+    <t>New Order</t>
+  </si>
+  <si>
+    <t>Supplier Deliveries</t>
+  </si>
+  <si>
+    <t>New Export Orders</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Industry</t>
   </si>
 </sst>
 </file>
@@ -623,7 +623,7 @@
   <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F199"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -636,13 +636,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="3">
         <v>45078</v>
@@ -656,13 +656,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="5">
         <v>-1</v>
@@ -675,12 +675,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
@@ -693,12 +695,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -711,12 +715,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5">
         <v>12</v>
@@ -729,12 +735,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5">
         <v>5</v>
@@ -747,12 +755,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="5">
         <v>13</v>
@@ -765,12 +775,14 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="5">
         <v>15</v>
@@ -783,12 +795,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" s="5">
         <v>-3</v>
@@ -801,12 +815,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="5">
         <v>6</v>
@@ -819,12 +835,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="5">
         <v>-2</v>
@@ -837,12 +855,14 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="5">
         <v>9</v>
@@ -855,12 +875,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="5">
         <v>11</v>
@@ -873,12 +895,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="5">
         <v>4</v>
@@ -891,12 +915,14 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B15" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="5">
         <v>3</v>
@@ -909,12 +935,14 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B16" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="5">
         <v>14</v>
@@ -927,12 +955,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B17" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="5">
         <v>7</v>
@@ -945,12 +975,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B18" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18" s="5">
         <v>10</v>
@@ -963,12 +995,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="5">
         <v>8</v>
@@ -982,13 +1016,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" s="5">
         <v>-1</v>
@@ -1001,12 +1035,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="4"/>
+      <c r="A21" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B21" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D21" s="5">
         <v>2</v>
@@ -1019,12 +1055,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="4"/>
+      <c r="A22" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B22" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
@@ -1037,12 +1075,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="4"/>
+      <c r="A23" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B23" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D23" s="5">
         <v>15</v>
@@ -1055,12 +1095,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B24" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24" s="5">
         <v>5</v>
@@ -1073,12 +1115,14 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B25" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D25" s="5">
         <v>3</v>
@@ -1091,12 +1135,14 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="4"/>
+      <c r="A26" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B26" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D26" s="5">
         <v>12</v>
@@ -1107,12 +1153,14 @@
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="4"/>
+      <c r="A27" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B27" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D27" s="5">
         <v>11</v>
@@ -1125,12 +1173,14 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="4"/>
+      <c r="A28" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B28" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5">
@@ -1139,12 +1189,14 @@
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B29" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D29" s="5">
         <v>-2</v>
@@ -1155,12 +1207,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="4"/>
+      <c r="A30" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D30" s="5">
         <v>9</v>
@@ -1173,12 +1227,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="4"/>
+      <c r="A31" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B31" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D31" s="5">
         <v>13</v>
@@ -1191,12 +1247,14 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="4"/>
+      <c r="A32" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D32" s="5">
         <v>8</v>
@@ -1209,12 +1267,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="4"/>
+      <c r="A33" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B33" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D33" s="5">
         <v>4</v>
@@ -1227,12 +1287,14 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="4"/>
+      <c r="A34" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B34" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D34" s="5">
         <v>14</v>
@@ -1245,12 +1307,14 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="4"/>
+      <c r="A35" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B35" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D35" s="5">
         <v>7</v>
@@ -1261,12 +1325,14 @@
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="4"/>
+      <c r="A36" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B36" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D36" s="5">
         <v>10</v>
@@ -1279,12 +1345,14 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="4"/>
+      <c r="A37" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D37" s="5">
         <v>6</v>
@@ -1298,13 +1366,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" s="5">
         <v>-2</v>
@@ -1317,12 +1385,14 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="4"/>
+      <c r="A39" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B39" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D39" s="5">
         <v>2</v>
@@ -1335,12 +1405,14 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" s="4"/>
+      <c r="A40" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B40" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D40" s="5">
         <v>1</v>
@@ -1353,12 +1425,14 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" s="4"/>
+      <c r="A41" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B41" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D41" s="5">
         <v>10</v>
@@ -1371,12 +1445,14 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" s="4"/>
+      <c r="A42" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B42" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D42" s="5">
         <v>3</v>
@@ -1389,12 +1465,14 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" s="4"/>
+      <c r="A43" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B43" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D43" s="5">
         <v>8</v>
@@ -1407,12 +1485,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A44" s="4"/>
+      <c r="A44" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B44" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D44" s="5">
         <v>12</v>
@@ -1425,12 +1505,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A45" s="4"/>
+      <c r="A45" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B45" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D45" s="5">
         <v>-4</v>
@@ -1443,12 +1525,14 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A46" s="4"/>
+      <c r="A46" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B46" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D46" s="5">
         <v>7</v>
@@ -1459,12 +1543,14 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A47" s="4"/>
+      <c r="A47" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B47" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D47" s="5">
         <v>-1</v>
@@ -1475,12 +1561,14 @@
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A48" s="4"/>
+      <c r="A48" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B48" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D48" s="5">
         <v>9</v>
@@ -1493,12 +1581,14 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A49" s="4"/>
+      <c r="A49" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B49" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D49" s="5">
         <v>11</v>
@@ -1509,12 +1599,14 @@
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" s="4"/>
+      <c r="A50" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B50" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D50" s="5">
         <v>4</v>
@@ -1527,12 +1619,14 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" s="4"/>
+      <c r="A51" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B51" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -1541,12 +1635,14 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="4"/>
+      <c r="A52" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B52" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D52" s="5">
         <v>-3</v>
@@ -1557,12 +1653,14 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="4"/>
+      <c r="A53" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B53" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D53" s="5">
         <v>6</v>
@@ -1575,12 +1673,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="4"/>
+      <c r="A54" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B54" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D54" s="5">
         <v>13</v>
@@ -1593,12 +1693,14 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" s="4"/>
+      <c r="A55" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B55" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D55" s="5">
         <v>5</v>
@@ -1612,13 +1714,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" s="5">
         <v>-1</v>
@@ -1629,12 +1731,14 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" s="6"/>
+      <c r="A57" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B57" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D57" s="5">
         <v>4</v>
@@ -1645,12 +1749,14 @@
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" s="6"/>
+      <c r="A58" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B58" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D58" s="5">
         <v>1</v>
@@ -1663,12 +1769,14 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" s="6"/>
+      <c r="A59" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B59" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D59" s="5">
         <v>8</v>
@@ -1681,12 +1789,14 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" s="6"/>
+      <c r="A60" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B60" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D60" s="5">
         <v>-3</v>
@@ -1697,12 +1807,14 @@
       <c r="F60" s="5"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" s="6"/>
+      <c r="A61" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B61" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D61" s="5">
         <v>-2</v>
@@ -1715,12 +1827,14 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="6"/>
+      <c r="A62" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B62" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D62" s="5">
         <v>-5</v>
@@ -1733,12 +1847,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A63" s="6"/>
+      <c r="A63" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B63" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5">
@@ -1747,12 +1863,14 @@
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A64" s="6"/>
+      <c r="A64" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B64" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5">
@@ -1763,12 +1881,14 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A65" s="6"/>
+      <c r="A65" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B65" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5">
@@ -1777,12 +1897,14 @@
       <c r="F65" s="5"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A66" s="6"/>
+      <c r="A66" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B66" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5">
@@ -1793,12 +1915,14 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A67" s="6"/>
+      <c r="A67" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B67" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D67" s="5">
         <v>6</v>
@@ -1811,12 +1935,14 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A68" s="6"/>
+      <c r="A68" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B68" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D68" s="5">
         <v>7</v>
@@ -1829,12 +1955,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A69" s="6"/>
+      <c r="A69" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B69" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D69" s="5">
         <v>2</v>
@@ -1845,12 +1973,14 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A70" s="6"/>
+      <c r="A70" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B70" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D70" s="5">
         <v>3</v>
@@ -1863,12 +1993,14 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A71" s="6"/>
+      <c r="A71" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B71" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D71" s="5">
         <v>5</v>
@@ -1879,12 +2011,14 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A72" s="6"/>
+      <c r="A72" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B72" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D72" s="5">
         <v>9</v>
@@ -1897,12 +2031,14 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A73" s="6"/>
+      <c r="A73" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B73" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D73" s="5">
         <v>-4</v>
@@ -1916,13 +2052,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" s="5">
         <v>-4</v>
@@ -1933,12 +2069,14 @@
       <c r="F74" s="5"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A75" s="6"/>
+      <c r="A75" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B75" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5">
@@ -1947,12 +2085,14 @@
       <c r="F75" s="5"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A76" s="6"/>
+      <c r="A76" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B76" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5">
@@ -1963,12 +2103,14 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A77" s="6"/>
+      <c r="A77" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B77" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D77" s="5">
         <v>-8</v>
@@ -1981,12 +2123,14 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A78" s="6"/>
+      <c r="A78" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B78" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D78" s="5">
         <v>3</v>
@@ -1999,12 +2143,14 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A79" s="6"/>
+      <c r="A79" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B79" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5">
@@ -2013,12 +2159,14 @@
       <c r="F79" s="5"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A80" s="6"/>
+      <c r="A80" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B80" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D80" s="5">
         <v>-9</v>
@@ -2031,12 +2179,14 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A81" s="6"/>
+      <c r="A81" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B81" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D81" s="5">
         <v>-3</v>
@@ -2049,12 +2199,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A82" s="6"/>
+      <c r="A82" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B82" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D82" s="5">
         <v>1</v>
@@ -2065,12 +2217,14 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A83" s="6"/>
+      <c r="A83" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B83" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D83" s="5">
         <v>-1</v>
@@ -2081,12 +2235,14 @@
       <c r="F83" s="5"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A84" s="6"/>
+      <c r="A84" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B84" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -2095,12 +2251,14 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A85" s="6"/>
+      <c r="A85" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B85" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D85" s="5">
         <v>-7</v>
@@ -2113,12 +2271,14 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A86" s="6"/>
+      <c r="A86" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B86" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5">
@@ -2129,24 +2289,28 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A87" s="6"/>
+      <c r="A87" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B87" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A88" s="6"/>
+      <c r="A88" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B88" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D88" s="5">
         <v>-5</v>
@@ -2159,12 +2323,14 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A89" s="6"/>
+      <c r="A89" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B89" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D89" s="5">
         <v>-2</v>
@@ -2177,12 +2343,14 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A90" s="6"/>
+      <c r="A90" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B90" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D90" s="5">
         <v>2</v>
@@ -2193,12 +2361,14 @@
       <c r="F90" s="5"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A91" s="6"/>
+      <c r="A91" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B91" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D91" s="5">
         <v>-6</v>
@@ -2212,13 +2382,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" s="5">
         <v>-2</v>
@@ -2231,12 +2401,14 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A93" s="6"/>
+      <c r="A93" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B93" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D93" s="5">
         <v>3</v>
@@ -2247,12 +2419,14 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A94" s="6"/>
+      <c r="A94" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B94" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5">
@@ -2263,12 +2437,14 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A95" s="6"/>
+      <c r="A95" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B95" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D95" s="5">
         <v>4</v>
@@ -2279,12 +2455,14 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A96" s="6"/>
+      <c r="A96" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B96" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D96" s="5">
         <v>7</v>
@@ -2295,12 +2473,14 @@
       <c r="F96" s="5"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A97" s="6"/>
+      <c r="A97" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B97" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5">
@@ -2309,12 +2489,14 @@
       <c r="F97" s="5"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A98" s="6"/>
+      <c r="A98" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B98" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D98" s="5">
         <v>-5</v>
@@ -2327,12 +2509,14 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A99" s="6"/>
+      <c r="A99" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B99" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D99" s="5">
         <v>-3</v>
@@ -2343,12 +2527,14 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A100" s="6"/>
+      <c r="A100" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B100" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D100" s="5">
         <v>8</v>
@@ -2361,12 +2547,14 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A101" s="6"/>
+      <c r="A101" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B101" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D101" s="5">
         <v>1</v>
@@ -2379,12 +2567,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A102" s="6"/>
+      <c r="A102" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B102" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5">
@@ -2395,12 +2585,14 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A103" s="6"/>
+      <c r="A103" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B103" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D103" s="5">
         <v>9</v>
@@ -2413,24 +2605,28 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A104" s="6"/>
+      <c r="A104" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B104" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A105" s="6"/>
+      <c r="A105" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B105" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D105" s="5">
         <v>2</v>
@@ -2441,12 +2637,14 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A106" s="6"/>
+      <c r="A106" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B106" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D106" s="5">
         <v>-4</v>
@@ -2459,12 +2657,14 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A107" s="6"/>
+      <c r="A107" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B107" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D107" s="5">
         <v>5</v>
@@ -2475,12 +2675,14 @@
       <c r="F107" s="5"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A108" s="6"/>
+      <c r="A108" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B108" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D108" s="5">
         <v>6</v>
@@ -2493,12 +2695,14 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A109" s="6"/>
+      <c r="A109" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B109" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D109" s="5">
         <v>-1</v>
@@ -2512,13 +2716,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D110" s="5">
         <v>-2</v>
@@ -2531,12 +2735,14 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A111" s="6"/>
+      <c r="A111" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="B111" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D111" s="5">
         <v>4</v>
@@ -2547,12 +2753,14 @@
       <c r="F111" s="5"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A112" s="6"/>
+      <c r="A112" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="B112" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D112" s="5">
         <v>-1</v>
@@ -2565,12 +2773,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A113" s="6"/>
+      <c r="A113" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="B113" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D113" s="5">
         <v>3</v>
@@ -2583,12 +2793,14 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A114" s="6"/>
+      <c r="A114" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="B114" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D114" s="5">
         <v>10</v>
@@ -2601,12 +2813,14 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A115" s="6"/>
+      <c r="A115" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="B115" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D115" s="5">
         <v>2</v>
@@ -2619,12 +2833,14 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A116" s="6"/>
+      <c r="A116" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="B116" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D116" s="5">
         <v>6</v>
@@ -2637,12 +2853,14 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A117" s="6"/>
+      <c r="A117" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="B117" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D117" s="5">
         <v>8</v>
@@ -2655,12 +2873,14 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A118" s="6"/>
+      <c r="A118" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="B118" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D118" s="5">
         <v>5</v>
@@ -2673,12 +2893,14 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A119" s="6"/>
+      <c r="A119" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="B119" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5">
@@ -2689,12 +2911,14 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A120" s="6"/>
+      <c r="A120" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="B120" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D120" s="5">
         <v>9</v>
@@ -2707,12 +2931,14 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A121" s="6"/>
+      <c r="A121" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="B121" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D121" s="5">
         <v>12</v>
@@ -2725,12 +2951,14 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A122" s="6"/>
+      <c r="A122" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="B122" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D122" s="5">
         <v>1</v>
@@ -2743,24 +2971,28 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A123" s="6"/>
+      <c r="A123" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="B123" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A124" s="6"/>
+      <c r="A124" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="B124" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D124" s="5">
         <v>-3</v>
@@ -2771,12 +3003,14 @@
       <c r="F124" s="5"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A125" s="6"/>
+      <c r="A125" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="B125" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5">
@@ -2787,12 +3021,14 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A126" s="6"/>
+      <c r="A126" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="B126" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D126" s="5">
         <v>7</v>
@@ -2805,12 +3041,14 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A127" s="6"/>
+      <c r="A127" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="B127" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D127" s="5">
         <v>11</v>
@@ -2824,13 +3062,13 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D128" s="5">
         <v>-2</v>
@@ -2843,12 +3081,14 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A129" s="6"/>
+      <c r="A129" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="B129" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5">
@@ -2857,12 +3097,14 @@
       <c r="F129" s="5"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A130" s="6"/>
+      <c r="A130" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="B130" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5">
@@ -2871,12 +3113,14 @@
       <c r="F130" s="5"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A131" s="6"/>
+      <c r="A131" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="B131" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D131" s="5">
         <v>7</v>
@@ -2889,12 +3133,14 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A132" s="6"/>
+      <c r="A132" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="B132" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5">
@@ -2905,12 +3151,14 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A133" s="6"/>
+      <c r="A133" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="B133" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D133" s="5">
         <v>5</v>
@@ -2921,12 +3169,14 @@
       <c r="F133" s="5"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A134" s="6"/>
+      <c r="A134" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="B134" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D134" s="5">
         <v>-7</v>
@@ -2937,12 +3187,14 @@
       <c r="F134" s="5"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A135" s="6"/>
+      <c r="A135" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="B135" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D135" s="5">
         <v>-6</v>
@@ -2955,12 +3207,14 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A136" s="6"/>
+      <c r="A136" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="B136" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D136" s="5">
         <v>2</v>
@@ -2973,12 +3227,14 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A137" s="6"/>
+      <c r="A137" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="B137" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D137" s="5">
         <v>-3</v>
@@ -2989,24 +3245,28 @@
       <c r="F137" s="5"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A138" s="6"/>
+      <c r="A138" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="B138" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A139" s="6"/>
+      <c r="A139" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="B139" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D139" s="5">
         <v>4</v>
@@ -3019,12 +3279,14 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A140" s="6"/>
+      <c r="A140" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="B140" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D140" s="5">
         <v>1</v>
@@ -3035,12 +3297,14 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A141" s="6"/>
+      <c r="A141" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="B141" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D141" s="5">
         <v>-1</v>
@@ -3051,12 +3315,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A142" s="6"/>
+      <c r="A142" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="B142" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D142" s="5">
         <v>3</v>
@@ -3067,12 +3333,14 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A143" s="6"/>
+      <c r="A143" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="B143" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D143" s="5">
         <v>-5</v>
@@ -3083,12 +3351,14 @@
       <c r="F143" s="5"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A144" s="6"/>
+      <c r="A144" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="B144" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D144" s="5">
         <v>6</v>
@@ -3101,12 +3371,14 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A145" s="6"/>
+      <c r="A145" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="B145" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D145" s="5">
         <v>-4</v>
@@ -3121,10 +3393,10 @@
         <v>47</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D146" s="5">
         <v>-2</v>
@@ -3133,24 +3405,28 @@
       <c r="F146" s="5"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A147" s="6"/>
+      <c r="A147" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B147" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A148" s="6"/>
+      <c r="A148" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B148" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D148" s="5">
         <v>1</v>
@@ -3161,12 +3437,14 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A149" s="6"/>
+      <c r="A149" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B149" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D149" s="5">
         <v>3</v>
@@ -3179,24 +3457,28 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A150" s="6"/>
+      <c r="A150" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B150" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A151" s="6"/>
+      <c r="A151" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B151" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5">
@@ -3205,12 +3487,14 @@
       <c r="F151" s="5"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A152" s="6"/>
+      <c r="A152" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B152" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -3219,12 +3503,14 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A153" s="6"/>
+      <c r="A153" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B153" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D153" s="5">
         <v>5</v>
@@ -3237,12 +3523,14 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A154" s="6"/>
+      <c r="A154" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B154" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D154" s="5">
         <v>4</v>
@@ -3253,12 +3541,14 @@
       <c r="F154" s="5"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A155" s="6"/>
+      <c r="A155" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B155" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D155" s="5">
         <v>-1</v>
@@ -3267,24 +3557,28 @@
       <c r="F155" s="5"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A156" s="6"/>
+      <c r="A156" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B156" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A157" s="6"/>
+      <c r="A157" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B157" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D157" s="5">
         <v>7</v>
@@ -3297,24 +3591,28 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A158" s="6"/>
+      <c r="A158" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B158" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A159" s="6"/>
+      <c r="A159" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B159" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D159" s="5">
         <v>2</v>
@@ -3327,12 +3625,14 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A160" s="6"/>
+      <c r="A160" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B160" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D160" s="5">
         <v>-3</v>
@@ -3341,12 +3641,14 @@
       <c r="F160" s="5"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A161" s="6"/>
+      <c r="A161" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B161" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D161" s="5">
         <v>6</v>
@@ -3359,24 +3661,28 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A162" s="6"/>
+      <c r="A162" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B162" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A163" s="6"/>
+      <c r="A163" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B163" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D163" s="5">
         <v>-4</v>
@@ -3390,13 +3696,13 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5">
@@ -3405,24 +3711,28 @@
       <c r="F164" s="5"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A165" s="6"/>
+      <c r="A165" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B165" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A166" s="6"/>
+      <c r="A166" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B166" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D166" s="5">
         <v>1</v>
@@ -3435,12 +3745,14 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A167" s="6"/>
+      <c r="A167" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B167" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D167" s="5">
         <v>4</v>
@@ -3453,36 +3765,42 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A168" s="6"/>
+      <c r="A168" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B168" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A169" s="6"/>
+      <c r="A169" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B169" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A170" s="6"/>
+      <c r="A170" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B170" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5">
@@ -3493,12 +3811,14 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A171" s="6"/>
+      <c r="A171" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B171" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D171" s="5">
         <v>5</v>
@@ -3507,12 +3827,14 @@
       <c r="F171" s="5"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A172" s="6"/>
+      <c r="A172" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B172" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D172" s="5">
         <v>3</v>
@@ -3525,36 +3847,42 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A173" s="6"/>
+      <c r="A173" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B173" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A174" s="6"/>
+      <c r="A174" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B174" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A175" s="6"/>
+      <c r="A175" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B175" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D175" s="5">
         <v>7</v>
@@ -3567,36 +3895,42 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A176" s="6"/>
+      <c r="A176" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B176" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A177" s="6"/>
+      <c r="A177" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B177" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A178" s="6"/>
+      <c r="A178" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B178" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D178" s="5">
         <v>2</v>
@@ -3607,12 +3941,14 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A179" s="6"/>
+      <c r="A179" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B179" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5">
@@ -3623,12 +3959,14 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A180" s="6"/>
+      <c r="A180" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B180" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5">
@@ -3639,12 +3977,14 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A181" s="6"/>
+      <c r="A181" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B181" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D181" s="5">
         <v>6</v>
@@ -3658,13 +3998,13 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A182" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D182" s="5">
         <v>8</v>
@@ -3673,12 +4013,14 @@
       <c r="F182" s="5"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A183" s="4"/>
+      <c r="A183" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B183" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D183" s="5">
         <v>2</v>
@@ -3691,24 +4033,28 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A184" s="4"/>
+      <c r="A184" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B184" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A185" s="4"/>
+      <c r="A185" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B185" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D185" s="5">
         <v>6</v>
@@ -3721,36 +4067,42 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A186" s="4"/>
+      <c r="A186" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B186" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A187" s="4"/>
+      <c r="A187" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B187" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A188" s="4"/>
+      <c r="A188" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B188" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D188" s="5">
         <v>7</v>
@@ -3763,12 +4115,14 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A189" s="4"/>
+      <c r="A189" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B189" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D189" s="5">
         <v>5</v>
@@ -3781,12 +4135,14 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A190" s="4"/>
+      <c r="A190" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B190" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D190" s="5">
         <v>-3</v>
@@ -3799,12 +4155,14 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A191" s="4"/>
+      <c r="A191" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B191" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D191" s="5">
         <v>3</v>
@@ -3817,12 +4175,14 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A192" s="4"/>
+      <c r="A192" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B192" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D192" s="5"/>
       <c r="E192" s="5">
@@ -3831,12 +4191,14 @@
       <c r="F192" s="5"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A193" s="4"/>
+      <c r="A193" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B193" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D193" s="5">
         <v>-6</v>
@@ -3849,12 +4211,14 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A194" s="4"/>
+      <c r="A194" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B194" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D194" s="5">
         <v>-4</v>
@@ -3865,12 +4229,14 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A195" s="4"/>
+      <c r="A195" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B195" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D195" s="5">
         <v>-1</v>
@@ -3881,12 +4247,14 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A196" s="4"/>
+      <c r="A196" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B196" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D196" s="5">
         <v>-2</v>
@@ -3899,12 +4267,14 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A197" s="4"/>
+      <c r="A197" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B197" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D197" s="5">
         <v>-5</v>
@@ -3915,12 +4285,14 @@
       <c r="F197" s="5"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A198" s="4"/>
+      <c r="A198" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B198" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D198" s="5">
         <v>4</v>
@@ -3933,12 +4305,14 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A199" s="4"/>
+      <c r="A199" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B199" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D199" s="5">
         <v>1</v>
@@ -3951,16 +4325,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2 D9 D11 D20 D29 D38 D45 D47 D52 D56 D60:D62 D73:D74 D77 D80:D81 D83 D85 D88:D89 D91:D92 D98:D99 D106 D109:D110 D112 D124 D128 D134:D135 D137 D141 D143 D145:D146 D155 D160 D163 D190 D193:D197">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D2:D12 D14:D15 D17:D19 D21:D28 D30 D32:D33 D36:D37 D39:D43 D45:D46 D48 D50:D51 D54:D55 D57 D59 D63 D65 D69 D73:D90 D93 D95 D97:D99 D107:D108 D124 D128:D145 D147:D150 D153:D156 D158:D159 D162:D163 D165:D169 D171:D172 D176:D177 D180 D183:D187 D189 D191 D195 D197:D199">
     <cfRule type="colorScale" priority="20">
       <colorScale>
@@ -3968,16 +4332,6 @@
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3 D6 D16 D18 D24 D34 D39:D40 D42 D60 D63 D70:D72 D93 D101 D105 D107 D128:D129 D136 D138 D140 D148 D159:D160 D167 D171:D172 D193 D195:D197 D199">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -3998,6 +4352,26 @@
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6 D3 D16 D18 D24 D34 D39:D40 D42 D60 D63 D70:D72 D93 D101 D105 D107 D128:D129 D136 D138 D140 D148 D159:D160 D167 D171:D172 D193 D195:D197 D199">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9 D2 D11 D20 D29 D38 D45 D47 D52 D56 D60:D62 D73:D74 D77 D80:D81 D83 D85 D88:D89 D91:D92 D98:D99 D106 D109:D110 D112 D124 D128 D134:D135 D137 D141 D143 D145:D146 D155 D160 D163 D190 D193:D197">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -4061,7 +4435,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13 E16 E47 E52 E62 E66:E67 E70 E102 E104 E106 E188 E194">
+  <conditionalFormatting sqref="E16 E13 E47 E52 E62 E66:E67 E70 E102 E104 E106 E188 E194">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -4071,7 +4445,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15 E20 E30 E33 E48 E51 E60 E65 E67 E69 E71 E73 E78 E82 E95 E106 E108 E117 E129 E135:E136 E138 E140 E149 E156 E164 E172 E178 E196:E197 E199">
+  <conditionalFormatting sqref="E20 E15 E30 E33 E48 E51 E60 E65 E67 E69 E71 E73 E78 E82 E95 E106 E108 E117 E129 E135:E136 E138 E140 E149 E156 E164 E172 E178 E196:E197 E199">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -4121,18 +4495,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2 F8 F10:F11 F19:F20 F29 F31 F38 F41 F44 F56 F61:F62 F64 F68 F73 F76:F78 F80 F84 F88:F89 F91:F92 F95 F98 F100 F109:F110 F119 F125 F128 F136 F139:F141 F145 F166 F179 F193:F194">
+  <conditionalFormatting sqref="F8 F2 F10:F11 F19:F20 F29 F31 F38 F41 F44 F56 F61:F62 F64 F68 F73 F76:F78 F80 F84 F88:F89 F91:F92 F95 F98 F100 F109:F110 F119 F125 F128 F136 F139:F141 F145 F166 F179 F193:F194">
     <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37 F93 F99 F101 F108:F109 F174 F181">
-    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4151,6 +4515,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F93 F37 F99 F101 F108:F109 F174 F181">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>